--- a/examples/models/model_v1_manual2_EX.xlsx
+++ b/examples/models/model_v1_manual2_EX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="388">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -724,10 +724,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
+    <t>negative effectors</t>
   </si>
   <si>
-    <t>positive effector</t>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -736,49 +736,43 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
+    <t>mechanism_refs_type</t>
   </si>
   <si>
-    <t>mechanism_ref</t>
+    <t>mechanism_refs</t>
   </si>
   <si>
-    <t>inhibitors_ref_type</t>
+    <t>inhibitors_refs_type</t>
   </si>
   <si>
-    <t>inhibitors_ref</t>
+    <t>inhibitors_refs</t>
   </si>
   <si>
-    <t>activators_ref_type</t>
+    <t>activators_refs_type</t>
   </si>
   <si>
-    <t>activators_ref</t>
+    <t>activators_refs</t>
   </si>
   <si>
-    <t>negative_effectors_ref_type</t>
+    <t>negative_effectors_refs_type</t>
   </si>
   <si>
-    <t>negative_effectors_ref</t>
+    <t>negative_effectors_refs</t>
   </si>
   <si>
-    <t>positive_effectors_ref_type</t>
+    <t>positive_effectors_refs_type</t>
   </si>
   <si>
-    <t>positive_effectors_ref</t>
+    <t>positive_effectors_refs</t>
   </si>
   <si>
-    <t>subunits_ref_type</t>
+    <t>subunits_refs_type</t>
   </si>
   <si>
-    <t>subunits_ref</t>
+    <t>subunits_refs</t>
   </si>
   <si>
-    <t>subunits_comments1</t>
-  </si>
-  <si>
-    <t>subunits_comments2</t>
-  </si>
-  <si>
-    <t>general_comments</t>
+    <t>comments</t>
   </si>
   <si>
     <t>diffusion</t>
@@ -1243,6 +1237,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1250,7 +1245,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1307,7 +1301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1316,16 +1310,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1352,7 +1342,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,12 +1472,12 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="B44" activeCellId="1" sqref="1:1 B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="19.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1512,18 +1502,18 @@
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <f aca="false">B3+B11</f>
         <v>6140</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4" t="n">
         <v>611</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="4" t="n">
         <f aca="false">D3+D10</f>
         <v>960</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <v>611</v>
       </c>
     </row>
@@ -1531,17 +1521,17 @@
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <f aca="false">0.63*10^3</f>
         <v>630</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1549,19 +1539,19 @@
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <f aca="false">0.63*10^3</f>
         <v>630</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <f aca="false">0.63*10^3</f>
         <v>630</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -1570,19 +1560,19 @@
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <f aca="false">4.79*10^3</f>
         <v>4790</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <f aca="false">4.79*10^3</f>
         <v>4790</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -1591,19 +1581,19 @@
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4" t="n">
         <f aca="false">4.79*10^3</f>
         <v>4790</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <f aca="false">4.79*10^3</f>
         <v>4790</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -1612,19 +1602,19 @@
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
@@ -1633,19 +1623,19 @@
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
@@ -1654,19 +1644,19 @@
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4" t="n">
         <f aca="false">0.72*10^3*0.5</f>
         <v>360</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4" t="n">
         <f aca="false">0.72*10^3*0.5</f>
         <v>360</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
@@ -1675,19 +1665,19 @@
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4" t="n">
         <f aca="false">0.72*10^3*0.5</f>
         <v>360</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4" t="n">
         <f aca="false">0.72*10^3*0.5</f>
         <v>360</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
@@ -1696,19 +1686,19 @@
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4" t="n">
         <f aca="false">5.51*10^3</f>
         <v>5510</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4" t="n">
         <f aca="false">5.51*10^3</f>
         <v>5510</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -1717,19 +1707,19 @@
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="4" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="4" t="n">
         <f aca="false">0.72*10^3</f>
         <v>720</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="4" t="n">
         <f aca="false">0.06*10^3</f>
         <v>60</v>
       </c>
@@ -1738,19 +1728,19 @@
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="4" t="n">
         <f aca="false">1.17*10^3*0.5</f>
         <v>585</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="4" t="n">
         <f aca="false">1.17*10^3*0.5</f>
         <v>585</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -1759,19 +1749,19 @@
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="4" t="n">
         <f aca="false">1.17*10^3*0.25</f>
         <v>292.5</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="4" t="n">
         <f aca="false">1.17*10^3*0.25</f>
         <v>292.5</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -1780,19 +1770,19 @@
       <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="4" t="n">
         <f aca="false">1.17*10^3*0.25</f>
         <v>292.5</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="4" t="n">
         <f aca="false">1.17*10^3*0.25</f>
         <v>292.5</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -1801,19 +1791,19 @@
       <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="4" t="n">
         <f aca="false">1.17*10^3</f>
         <v>1170</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="4" t="n">
         <f aca="false">1.17*10^3</f>
         <v>1170</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -1822,19 +1812,19 @@
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="4" t="n">
         <f aca="false">0.59*10^3*0.5</f>
         <v>295</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="4" t="n">
         <f aca="false">0.59*10^3*0.5</f>
         <v>295</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
@@ -1843,19 +1833,19 @@
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="4" t="n">
         <f aca="false">0.59*10^3*0.5</f>
         <v>295</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="4" t="n">
         <f aca="false">0.59*10^3*0.5</f>
         <v>295</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
@@ -1864,19 +1854,19 @@
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="4" t="n">
         <f aca="false">0.44*10^3</f>
         <v>440</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="4" t="n">
         <f aca="false">0.59*10^3</f>
         <v>590</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="4" t="n">
         <f aca="false">0.44*10^3</f>
         <v>440</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="4" t="n">
         <f aca="false">0.59*10^3</f>
         <v>590</v>
       </c>
@@ -1885,19 +1875,19 @@
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="4" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="4" t="n">
         <f aca="false">0.59*10^3</f>
         <v>590</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="4" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="4" t="n">
         <f aca="false">0.59*10^3</f>
         <v>590</v>
       </c>
@@ -1906,19 +1896,19 @@
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="4" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="4" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
@@ -1927,19 +1917,19 @@
       <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
@@ -1948,19 +1938,19 @@
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="4" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="4" t="n">
         <f aca="false">0.15*10^3</f>
         <v>150</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="4" t="n">
         <f aca="false">0.01*10^3</f>
         <v>10</v>
       </c>
@@ -1969,19 +1959,19 @@
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="4" t="n">
         <f aca="false">6.11*10^ 3</f>
         <v>6110</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="4" t="n">
         <f aca="false">6.11*10^ 3</f>
         <v>6110</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -1990,19 +1980,19 @@
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="4" t="n">
         <f aca="false">6.11*10^ 3</f>
         <v>6110</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="4" t="n">
         <f aca="false">6.11*10^ 3</f>
         <v>6110</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -2011,19 +2001,19 @@
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="4" t="n">
         <f aca="false">0.57*10^3</f>
         <v>570</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="4" t="n">
         <f aca="false">0.57*10^3</f>
         <v>570</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -2032,19 +2022,19 @@
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="4" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="4" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
@@ -2053,19 +2043,19 @@
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="4" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="4" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
@@ -2074,19 +2064,19 @@
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="4" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="4" t="n">
         <f aca="false">0.46*10^3</f>
         <v>460</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="4" t="n">
         <f aca="false">0.03*10^3</f>
         <v>30</v>
       </c>
@@ -2095,19 +2085,19 @@
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="4" t="n">
         <f aca="false">5.11*10^3</f>
         <v>5110</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="4" t="n">
         <f aca="false">5.11*10^3</f>
         <v>5110</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -2116,19 +2106,19 @@
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="4" t="n">
         <f aca="false">5.11*10^3</f>
         <v>5110</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="4" t="n">
         <f aca="false">5.11*10^3</f>
         <v>5110</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="4" t="n">
         <f aca="false">0.04*10^3</f>
         <v>40</v>
       </c>
@@ -2137,19 +2127,19 @@
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="4" t="n">
         <f aca="false">4.36*10^3</f>
         <v>4360</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="4" t="n">
         <f aca="false">4.36*10^3</f>
         <v>4360</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -2158,19 +2148,19 @@
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="4" t="n">
         <f aca="false">4.36*10^3</f>
         <v>4360</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="4" t="n">
         <f aca="false">4.36*10^3</f>
         <v>4360</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="4" t="n">
         <f aca="false">0.07*10^3</f>
         <v>70</v>
       </c>
@@ -2179,19 +2169,19 @@
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="4" t="n">
         <f aca="false">3.89*10^3</f>
         <v>3890</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="4" t="n">
         <f aca="false">0.08*10^3</f>
         <v>80</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="4" t="n">
         <f aca="false">3.89*10^3</f>
         <v>3890</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="4" t="n">
         <f aca="false">0.08*10^3</f>
         <v>80</v>
       </c>
@@ -2200,16 +2190,16 @@
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="4" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2217,16 +2207,16 @@
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="4" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2234,17 +2224,17 @@
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="4" t="n">
         <v>2230</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="4" t="n">
         <f aca="false">B37*0.1</f>
         <v>223</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="4" t="n">
         <v>2230</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="4" t="n">
         <f aca="false">D37*0.1</f>
         <v>223</v>
       </c>
@@ -2253,17 +2243,17 @@
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="4" t="n">
         <v>5337.5</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="4" t="n">
         <f aca="false">B38*0.1</f>
         <v>533.75</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="4" t="n">
         <v>5337.5</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="4" t="n">
         <f aca="false">D38*0.1</f>
         <v>533.75</v>
       </c>
@@ -2272,17 +2262,17 @@
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="4" t="n">
         <v>312.5</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="4" t="n">
         <f aca="false">B39*0.1</f>
         <v>31.25</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="4" t="n">
         <v>312.5</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="4" t="n">
         <f aca="false">D39*0.1</f>
         <v>31.25</v>
       </c>
@@ -2291,16 +2281,16 @@
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2308,16 +2298,16 @@
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="4" t="n">
         <v>470</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="4" t="n">
         <v>47</v>
       </c>
     </row>
@@ -2325,16 +2315,16 @@
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="4" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2342,16 +2332,16 @@
       <c r="A43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2359,16 +2349,16 @@
       <c r="A44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2376,17 +2366,17 @@
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="4" t="n">
         <f aca="false">B45*0.1</f>
         <v>29</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="4" t="n">
         <f aca="false">D45*0.1</f>
         <v>29</v>
       </c>
@@ -2395,17 +2385,17 @@
       <c r="A46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="4" t="n">
         <f aca="false">B46*0.1</f>
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="4" t="n">
         <f aca="false">D46*0.1</f>
         <v>1</v>
       </c>
@@ -2414,17 +2404,17 @@
       <c r="A47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="4" t="n">
         <f aca="false">B47*0.1</f>
         <v>9</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="4" t="n">
         <f aca="false">D47*0.1</f>
         <v>9</v>
       </c>
@@ -2433,17 +2423,17 @@
       <c r="A48" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="4" t="n">
         <f aca="false">B48*0.1</f>
         <v>14</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="4" t="n">
         <f aca="false">D48*0.1</f>
         <v>14</v>
       </c>
@@ -2452,17 +2442,17 @@
       <c r="A49" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="4" t="n">
         <f aca="false">B49*0.1</f>
         <v>5</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="4" t="n">
         <f aca="false">D49*0.1</f>
         <v>5</v>
       </c>
@@ -2471,17 +2461,17 @@
       <c r="A50" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="4" t="n">
         <v>750</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="4" t="n">
         <f aca="false">B50*0.1</f>
         <v>75</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="4" t="n">
         <v>750</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="4" t="n">
         <f aca="false">D50*0.1</f>
         <v>75</v>
       </c>
@@ -2505,7 +2495,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3120,7 +3110,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3762,17 +3752,17 @@
   </sheetPr>
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="1:50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>223</v>
       </c>
@@ -3809,1398 +3799,1392 @@
       <c r="L1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="Y3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="Y4" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="n">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="S6" s="4" t="n">
+        <v>5470828</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>5470828</v>
-      </c>
-      <c r="T6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="K7" s="2" t="n">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="K7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="T7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="K8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="Z8" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="K8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="K9" s="2" t="n">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="K9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="T9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="K10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="K10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="K11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="T11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="X11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y11" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="V11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="K12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="X12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y12" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="Z12" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="X12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="N13" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="R13" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="S13" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="T13" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <v>6815421</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W13" s="4" t="n">
+        <v>6815421</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>6815421</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="R14" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="S14" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U14" s="2" t="n">
+      <c r="T14" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="U14" s="4" t="n">
         <v>6815421</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W14" s="2" t="n">
+      <c r="V14" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W14" s="4" t="n">
         <v>6815421</v>
       </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="N15" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="R15" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="S15" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="U15" s="2" t="n">
+      <c r="T15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="U15" s="4" t="n">
         <v>6815421</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W15" s="2" t="n">
+      <c r="V15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W15" s="4" t="n">
         <v>6815421</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>286</v>
+      <c r="X15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="K16" s="2" t="n">
+      <c r="G16" s="4"/>
+      <c r="K16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>312</v>
+      <c r="X16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="K17" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>19686854</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>4154932</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>19686854</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="K17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>4154932</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>19686854</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="K18" s="2" t="n">
+      <c r="G18" s="4"/>
+      <c r="K18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M18" s="2" t="n">
+      <c r="L18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M18" s="4" t="n">
         <v>19686854</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O18" s="2" t="n">
+      <c r="N18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O18" s="4" t="n">
         <v>4154932</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W18" s="2" t="n">
+      <c r="V18" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W18" s="4" t="n">
         <v>19686854</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>317</v>
+      <c r="X18" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="K19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="W19" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="K19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>255</v>
+      <c r="Y19" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="K20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="W20" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="K20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>255</v>
+      <c r="X20" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="K21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>17914867</v>
+      </c>
+      <c r="V21" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="W21" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="K21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>255</v>
+      <c r="X21" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="K22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>17914867</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="K22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>17914867</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>255</v>
+      <c r="Y22" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="K23" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>8805555</v>
+      </c>
+      <c r="V23" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="W23" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="K23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>8805555</v>
-      </c>
-      <c r="V23" s="2" t="s">
+      <c r="X23" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="W23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>255</v>
+      <c r="Y23" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O24" s="2" t="n">
+      <c r="N24" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O24" s="4" t="n">
         <v>4154932</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W24" s="2" t="n">
+      <c r="V24" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W24" s="4" t="n">
         <v>6326623</v>
       </c>
-      <c r="X24" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>267</v>
+      <c r="X24" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="V25" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>12876349</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="K25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="Y25" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W25" s="2" t="n">
-        <v>12876349</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="V26" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y26" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="X27" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="K27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="W27" s="2" t="s">
+      <c r="Y27" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="M28" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" s="2" t="s">
+      <c r="V28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W28" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="X28" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W28" s="2" t="s">
+      <c r="Y28" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>346</v>
+      <c r="V29" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="H30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>7447472</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W30" s="4" t="n">
+        <v>8636984</v>
+      </c>
+      <c r="X30" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>7447472</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W30" s="2" t="n">
-        <v>8636984</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>351</v>
+      <c r="Y30" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>5128739</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W31" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>5128739</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>312</v>
+      <c r="X31" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="V32" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="X32" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="Y32" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="X32" s="2" t="s">
+      <c r="Z32" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W33" s="2" t="n">
+      <c r="V33" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W33" s="4" t="n">
         <v>9376357</v>
       </c>
-      <c r="X33" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>372</v>
+      <c r="X33" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="J34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="T34" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="J34" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="U34" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="V34" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="W34" s="4" t="n">
+        <v>468836</v>
+      </c>
+      <c r="X34" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="W34" s="2" t="n">
-        <v>468836</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>286</v>
+      <c r="Y34" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="V35" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M35" s="2" t="s">
+      <c r="W35" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>382</v>
+      <c r="L36" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K37" s="2" t="n">
+      <c r="B37" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K37" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,10 +5192,10 @@
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K38" s="2" t="n">
+      <c r="B38" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K38" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,10 +5203,10 @@
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K39" s="2" t="n">
+      <c r="B39" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K39" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5230,125 +5214,125 @@
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2" t="n">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2" t="n">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="2" t="n">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5374,8 +5358,8 @@
   </sheetPr>
   <dimension ref="1:50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -61902,12 +61886,12 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="1" sqref="1:1 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -61932,16 +61916,16 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -61949,16 +61933,16 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61966,16 +61950,16 @@
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -61983,16 +61967,16 @@
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62000,16 +61984,16 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62017,16 +62001,16 @@
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62034,16 +62018,16 @@
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62051,16 +62035,16 @@
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62068,16 +62052,16 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62085,16 +62069,16 @@
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62102,16 +62086,16 @@
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62119,16 +62103,16 @@
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62136,16 +62120,16 @@
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62153,16 +62137,16 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62170,16 +62154,16 @@
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62187,16 +62171,16 @@
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62204,16 +62188,16 @@
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62221,16 +62205,16 @@
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62238,16 +62222,16 @@
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62255,16 +62239,16 @@
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62272,16 +62256,16 @@
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62289,16 +62273,16 @@
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62306,16 +62290,16 @@
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62323,16 +62307,16 @@
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62340,16 +62324,16 @@
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62357,16 +62341,16 @@
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62374,16 +62358,16 @@
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62391,16 +62375,16 @@
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62408,16 +62392,16 @@
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62425,16 +62409,16 @@
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62442,16 +62426,16 @@
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62459,16 +62443,16 @@
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62476,16 +62460,16 @@
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62493,16 +62477,16 @@
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62510,16 +62494,16 @@
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62527,16 +62511,16 @@
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62544,16 +62528,16 @@
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62561,16 +62545,16 @@
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62578,16 +62562,16 @@
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62595,16 +62579,16 @@
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="C41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62612,16 +62596,16 @@
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="n">
+      <c r="C42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62629,16 +62613,16 @@
       <c r="A43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="n">
+      <c r="C43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62646,16 +62630,16 @@
       <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="n">
+      <c r="C44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62678,12 +62662,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -62708,13 +62692,13 @@
       <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62722,13 +62706,13 @@
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62736,13 +62720,13 @@
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62750,13 +62734,13 @@
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62764,13 +62748,13 @@
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62778,13 +62762,13 @@
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62792,13 +62776,13 @@
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62806,13 +62790,13 @@
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62820,13 +62804,13 @@
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62834,13 +62818,13 @@
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62848,13 +62832,13 @@
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62862,16 +62846,16 @@
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -62879,16 +62863,16 @@
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="C14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -62896,16 +62880,16 @@
       <c r="A15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="C15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -62913,406 +62897,406 @@
       <c r="A16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
+      <c r="C21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
+      <c r="C23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
+      <c r="C24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
+      <c r="C25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
+      <c r="C27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
+      <c r="C28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="n">
+      <c r="C29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
+      <c r="C30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
+      <c r="C31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="n">
+      <c r="C32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="n">
+      <c r="C33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="n">
+      <c r="C35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="n">
+      <c r="C36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="n">
+      <c r="C37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="n">
+      <c r="C38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="n">
+      <c r="C39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="n">
+      <c r="C40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="n">
+      <c r="C41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="n">
+      <c r="C42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -63333,7 +63317,7 @@
   <dimension ref="A2:A43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63570,7 +63554,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63817,7 +63801,7 @@
   <dimension ref="A2:A45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64064,7 +64048,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64553,7 +64537,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:50"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
